--- a/report/reliability/comb/Faculdade de Medicina - FAMED-Graduação (bacharelado).xlsx
+++ b/report/reliability/comb/Faculdade de Medicina - FAMED-Graduação (bacharelado).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7671735893281737</v>
+        <v>0.7371661780223162</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7931716428071969</v>
+        <v>0.7703915664518548</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8900894258489975</v>
+        <v>0.8757977428318238</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.24218153760018657</v>
+        <v>0.2051477431219198</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.8349269586269115</v>
+        <v>3.3552407224202265</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.02589463847323354</v>
+        <v>0.027439822828700274</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.8364864864864865</v>
+        <v>2.126819126819127</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.65249703663511</v>
+        <v>0.5589785122638402</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.16900269059117007</v>
+        <v>0.13854280649861972</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7409898906054079</v>
+        <v>0.7411532336613856</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7608175656815623</v>
+        <v>0.7788479351716397</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.869712164143261</v>
+        <v>0.8801977858879447</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.22430924738492716</v>
+        <v>0.22689257038593658</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.1809090322604594</v>
+        <v>3.5217755519312766</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.02881201079315275</v>
+        <v>0.0277024238328746</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.03697718288319637</v>
+        <v>0.049238625676864635</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.16173535541380188</v>
+        <v>0.1508158545628862</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7452182851614465</v>
+        <v>0.7116430014481282</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.768162166406209</v>
+        <v>0.7413167050231763</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8677817512208481</v>
+        <v>0.8571886815526389</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.23148721714068646</v>
+        <v>0.19277430072911364</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.313359836480034</v>
+        <v>2.865730874077482</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.028345234777059726</v>
+        <v>0.03002525117206996</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.0363612672871927</v>
+        <v>0.05218426247949824</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.16687923382412412</v>
+        <v>0.12187977417719512</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7471560393496697</v>
+        <v>0.7180767955492515</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7669890870293969</v>
+        <v>0.7489573684362429</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8692859527139181</v>
+        <v>0.8592135079708143</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.23031950520405425</v>
+        <v>0.19911300051898478</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.2916444867376704</v>
+        <v>2.9833871791852657</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.028190442653934153</v>
+        <v>0.029360214050001558</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.03813400409597657</v>
+        <v>0.05214598997264592</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.1611556938709235</v>
+        <v>0.12768290491009335</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7514758090795275</v>
+        <v>0.7265705811631432</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7736279500772935</v>
+        <v>0.7460104709593678</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8688214234063344</v>
+        <v>0.8530747092317633</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.2370386650022601</v>
+        <v>0.19663498141414743</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.4175064913775546</v>
+        <v>2.9371701809015294</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.027696158435260226</v>
+        <v>0.028897826723827</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.03507548519721845</v>
+        <v>0.037941594603220614</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.17796400570553123</v>
+        <v>0.14132619500327434</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7493469403210279</v>
+        <v>0.707538473087606</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7817114859043911</v>
+        <v>0.7434336843346543</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8504438001185534</v>
+        <v>0.850891159396734</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2455983961989835</v>
+        <v>0.19450262987052966</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.581093073738211</v>
+        <v>2.897627782535403</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.02772326589938508</v>
+        <v>0.03005914391083216</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.033209878022231076</v>
+        <v>0.0380260834004833</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.18063000879617014</v>
+        <v>0.14132619500327434</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7520380280803375</v>
+        <v>0.7107632685883027</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7830141608252105</v>
+        <v>0.7448305309148561</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8511385396810551</v>
+        <v>0.8518861765599413</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.24701865637393583</v>
+        <v>0.1956546122011519</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.6085956751973356</v>
+        <v>2.9189641440462615</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.02741160960934684</v>
+        <v>0.029673026170114133</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.032790208443817574</v>
+        <v>0.03782993291532429</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.18063000879617014</v>
+        <v>0.14132619500327434</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7554796330098953</v>
+        <v>0.7376657764461326</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7894937393770564</v>
+        <v>0.7694750084604597</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8818831619910611</v>
+        <v>0.8785446250005706</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2542601678282294</v>
+        <v>0.21762556404573113</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.750452537804507</v>
+        <v>3.3379244624263524</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.027367972062226218</v>
+        <v>0.027987197255242572</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.04011107876838735</v>
+        <v>0.05316261942494629</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.18063000879617014</v>
+        <v>0.1486163400781462</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7710614483545938</v>
+        <v>0.7187888811186105</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7928059249627949</v>
+        <v>0.7574921271736998</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8843820880033779</v>
+        <v>0.8613466288124781</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2580798229480096</v>
+        <v>0.20653694365355105</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.8263928387934505</v>
+        <v>3.1235774671788277</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.025488165392453785</v>
+        <v>0.029257031873464255</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.03919147698125773</v>
+        <v>0.05259950867085996</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.21139969217300342</v>
+        <v>0.12768290491009335</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7614653509500312</v>
+        <v>0.7400501484617177</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7883231210446948</v>
+        <v>0.7664135596561718</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8901096488392094</v>
+        <v>0.871025171666365</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2529296121313321</v>
+        <v>0.21471469791809691</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.7241815210774454</v>
+        <v>3.2810704188481465</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.02689157257619913</v>
+        <v>0.02672779287762029</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.04221761629085506</v>
+        <v>0.052180521318355766</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.17112614735821602</v>
+        <v>0.1486163400781462</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7470029221337308</v>
+        <v>0.7229667081254809</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.779220587388923</v>
+        <v>0.7603999185363666</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8847123482266098</v>
+        <v>0.8734834576944002</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.24291477468776154</v>
+        <v>0.20915384836439924</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.529407829169246</v>
+        <v>3.1736212854826613</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.02838200652861138</v>
+        <v>0.029089160447531136</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.042881189972819374</v>
+        <v>0.055459591834999385</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.16337954864443913</v>
+        <v>0.11630510805342431</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7443948583110253</v>
+        <v>0.7113500696846524</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7746527221450265</v>
+        <v>0.7553100092806567</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.866829433441795</v>
+        <v>0.8683778805309018</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.23810026235730017</v>
+        <v>0.20460290285974322</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.437595206468696</v>
+        <v>3.086803865822977</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.028470940506650222</v>
+        <v>0.030203420463181998</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.038202068430516864</v>
+        <v>0.055006679691751624</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.16687923382412412</v>
+        <v>0.1355156566556594</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7502887980616266</v>
+        <v>0.7088679219210351</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7803460389612787</v>
+        <v>0.7525447819058778</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.869293266760681</v>
+        <v>0.852555498138059</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.24412212394475896</v>
+        <v>0.20218787907324412</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.5526153740688375</v>
+        <v>3.041135231262894</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.027862002313657448</v>
+        <v>0.030220813495059996</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.037422806907683896</v>
+        <v>0.05063775421189152</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.16687923382412412</v>
+        <v>0.13854280649861972</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7148115612881109</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7574806774590058</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8547713050357972</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.2065267295503277</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.1233827866683317</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.029616606425862453</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.05018644684353386</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.14132619500327434</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>185.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6319860337830775</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.7008127023397378</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.677816020656963</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5568458449807454</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.9135135135135135</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>0.8803908970507764</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>185.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5759279678658354</v>
+        <v>0.14639834163597412</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6412744419673256</v>
+        <v>0.3020995945990791</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6215856801973082</v>
+        <v>0.2165408850261909</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.4830406452687911</v>
+        <v>0.13239224327824764</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>4.47027027027027</v>
+        <v>0.9891891891891892</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>0.9782595639108665</v>
+        <v>0.10369212315422188</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>185.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5765024428801406</v>
+        <v>0.5686431970781342</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6509601246448544</v>
+        <v>0.6377676161069851</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6270130162329337</v>
+        <v>0.6092237662170236</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.501972158790871</v>
+        <v>0.47787000135703517</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.9891891891891893</v>
+        <v>3.9135135135135135</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>0.8007414308083015</v>
+        <v>0.8803908970507764</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>185.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.5142285716119784</v>
+        <v>0.5057825191094434</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.5952275011925973</v>
+        <v>0.575405168104786</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.5757661437892984</v>
+        <v>0.5406678208546677</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.4210242584055635</v>
+        <v>0.39522221559433135</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>4.475675675675675</v>
+        <v>4.47027027027027</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>0.9093133474261145</v>
+        <v>0.9782595639108665</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>185.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5590329827557824</v>
+        <v>0.5731404261661827</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5242281069280181</v>
+        <v>0.5997848268197818</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5496956128326874</v>
+        <v>0.6334498139171477</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.420563105673111</v>
+        <v>0.5419769010582651</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.4864864864864865</v>
+        <v>0.11891891891891893</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.367750088840397</v>
+        <v>0.3245714882715746</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>185.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5449261626221277</v>
+        <v>0.6029252387054562</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5124476421210953</v>
+        <v>0.620763681580148</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5371912859939286</v>
+        <v>0.6584472868848138</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.4002556337207165</v>
+        <v>0.461220843961237</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.4972972972972973</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.3992401832715446</v>
+        <v>1.367750088840397</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>185.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.4873771150218921</v>
+        <v>0.5881284066089105</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.4523823299052556</v>
+        <v>0.6094300578758549</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.38841477530516255</v>
+        <v>0.6460669545575085</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.3625280265718879</v>
+        <v>0.4393682333246011</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>3.1243243243243244</v>
+        <v>0.4972972972972973</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.1565986032434403</v>
+        <v>1.3992401832715446</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>185.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.4673363698677519</v>
+        <v>0.3195447786887998</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.4206998864299512</v>
+        <v>0.3932717939751371</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.3512819601249948</v>
+        <v>0.30401265029420693</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.282801622608796</v>
+        <v>0.29734310580639073</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>3.345945945945946</v>
+        <v>0.9675675675675676</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.6182711176146467</v>
+        <v>0.17762633907651487</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>185.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5259145002921449</v>
+        <v>0.5115428821856036</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.4634187335426924</v>
+        <v>0.5023656989631053</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.3759884595223337</v>
+        <v>0.4569385675844293</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.3512185627250141</v>
+        <v>0.37943019773112424</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.962162162162162</v>
+        <v>3.1243243243243244</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.619740879597344</v>
+        <v>1.1565986032434403</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>185.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5700701479871958</v>
+        <v>0.4720902746452269</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5464876262228634</v>
+        <v>0.4219099600886395</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.4735671435451042</v>
+        <v>0.35677545798640486</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.43914383493724757</v>
+        <v>0.2722201195635223</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.7945945945945945</v>
+        <v>3.345945945945946</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3191618604633237</v>
+        <v>1.6182711176146467</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>185.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.581328168397454</v>
+        <v>0.5598793321697585</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5864219946377208</v>
+        <v>0.4766196328348818</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5657094705929633</v>
+        <v>0.3944609080527541</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.46552127751307254</v>
+        <v>0.3767345809183273</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.627027027027027</v>
+        <v>1.962162162162162</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.2006901658069704</v>
+        <v>1.619740879597344</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>185.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5335612617268752</v>
+        <v>0.5763900994652722</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5364731685322505</v>
+        <v>0.5213935000005834</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5118012241295609</v>
+        <v>0.45340701324510824</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.41187831116514606</v>
+        <v>0.43506831015258446</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.7945945945945945</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3191618604633237</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>185.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.5834982957961801</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.5451533877223974</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5271522191883661</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.45787439119011</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.627027027027027</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.2006901658069704</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>185.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5422723962974014</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5024661890481809</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.48087925849507307</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.41142610918577427</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.3513513513513513</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.1845063229642068</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.010810810810810811</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.021621621621621623</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.1945945945945946</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.5567567567567567</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.010810810810810811</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.032432432432432434</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.14594594594594595</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.08648648648648649</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.7243243243243244</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.0</v>
+        <v>0.010810810810810811</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.016216216216216217</v>
+        <v>0.9891891891891892</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.005405405405405406</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.21081081081081082</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.5081081081081081</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.2594594594594595</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.0</v>
+        <v>0.010810810810810811</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.0</v>
+        <v>0.021621621621621623</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.02702702702702703</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.20540540540540542</v>
+        <v>0.1945945945945946</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.032432432432432434</v>
+        <v>0.5567567567567567</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.7351351351351352</v>
+        <v>0.21621621621621623</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.8810810810810811</v>
+        <v>0.010810810810810811</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.005405405405405406</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0</v>
+        <v>0.032432432432432434</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.016216216216216217</v>
+        <v>0.14594594594594595</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.05405405405405406</v>
+        <v>0.08648648648648649</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.043243243243243246</v>
+        <v>0.7243243243243244</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.8810810810810811</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0</v>
+        <v>0.11891891891891893</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.005405405405405406</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.032432432432432434</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.016216216216216217</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.06486486486486487</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.032432432432432434</v>
+        <v>0.8810810810810811</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.11351351351351352</v>
+        <v>0.005405405405405406</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.010810810810810811</v>
+        <v>0.0</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.4486486486486487</v>
+        <v>0.016216216216216217</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.32972972972972975</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.06486486486486487</v>
+        <v>0.043243243243243246</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
+        <v>0.8810810810810811</v>
+      </c>
+      <c r="C50" t="n" s="110">
+        <v>0.0</v>
+      </c>
+      <c r="D50" t="n" s="111">
+        <v>0.005405405405405406</v>
+      </c>
+      <c r="E50" t="n" s="112">
         <v>0.032432432432432434</v>
       </c>
-      <c r="C50" t="n" s="110">
-        <v>0.14594594594594595</v>
-      </c>
-      <c r="D50" t="n" s="111">
-        <v>0.1783783783783784</v>
-      </c>
-      <c r="E50" t="n" s="112">
-        <v>0.10810810810810811</v>
-      </c>
       <c r="F50" t="n" s="113">
-        <v>0.15675675675675677</v>
+        <v>0.016216216216216217</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.3783783783783784</v>
+        <v>0.06486486486486487</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.35135135135135137</v>
+        <v>0.032432432432432434</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.06486486486486487</v>
+        <v>0.9675675675675676</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.05945945945945946</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.31891891891891894</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.20540540540540542</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.13513513513513514</v>
+        <v>0.032432432432432434</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.043243243243243246</v>
+        <v>0.11351351351351352</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.04864864864864865</v>
+        <v>0.010810810810810811</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.43783783783783786</v>
+        <v>0.4486486486486487</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.33513513513513515</v>
+        <v>0.32972972972972975</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.06486486486486487</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.0972972972972973</v>
+        <v>0.032432432432432434</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.021621621621621623</v>
+        <v>0.14594594594594595</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.32432432432432434</v>
+        <v>0.1783783783783784</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.2702702702702703</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.2864864864864865</v>
+        <v>0.15675675675675677</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
+        <v>27</v>
+      </c>
+      <c r="B54" t="n" s="109">
+        <v>0.35135135135135137</v>
+      </c>
+      <c r="C54" t="n" s="110">
+        <v>0.06486486486486487</v>
+      </c>
+      <c r="D54" t="n" s="111">
+        <v>0.05945945945945946</v>
+      </c>
+      <c r="E54" t="n" s="112">
+        <v>0.31891891891891894</v>
+      </c>
+      <c r="F54" t="n" s="113">
+        <v>0.20540540540540542</v>
+      </c>
+      <c r="G54" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.043243243243243246</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.04864864864864865</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.43783783783783786</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.33513513513513515</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
         <v>29</v>
       </c>
-      <c r="B54" t="n" s="109">
+      <c r="B56" t="n" s="109">
+        <v>0.0972972972972973</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.021621621621621623</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.32432432432432434</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.2864864864864865</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
         <v>0.12432432432432433</v>
       </c>
-      <c r="C54" t="n" s="110">
+      <c r="C57" t="n" s="110">
         <v>0.021621621621621623</v>
       </c>
-      <c r="D54" t="n" s="111">
+      <c r="D57" t="n" s="111">
         <v>0.42162162162162165</v>
       </c>
-      <c r="E54" t="n" s="112">
+      <c r="E57" t="n" s="112">
         <v>0.24324324324324326</v>
       </c>
-      <c r="F54" t="n" s="113">
+      <c r="F57" t="n" s="113">
         <v>0.1891891891891892</v>
       </c>
-      <c r="G54" t="n" s="114">
-        <v>0.0</v>
-      </c>
-      <c r="H54" t="n" s="115">
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8510174804739387</v>
+        <v>0.8742117987189393</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8523483294571979</v>
+        <v>0.9910910345668029</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8547281140356723</v>
+        <v>0.9870886049107475</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5906963991173254</v>
+        <v>0.973740985014048</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>5.772696823027916</v>
+        <v>111.24647884183545</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.018023410924370688</v>
+        <v>0.0018652760065807957</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>4.212162162162162</v>
+        <v>0.3675675675675676</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.7435780679429258</v>
+        <v>1.023589122261932</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6259327210536193</v>
+        <v>0.9707858642113518</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8094374979086032</v>
+        <v>0.9899793076189813</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8123928780962847</v>
+        <v>0.9901088135366092</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7758812249328068</v>
+        <v>0.9804113817489</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5907391388319875</v>
+        <v>0.9804113817489002</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.33028805011584</v>
+        <v>100.10010600863639</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.024347491395196513</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.019497597313157224</v>
-      </c>
+        <v>0.0014637280038704479</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6636042795401736</v>
+        <v>0.9804113817489001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8132629811728025</v>
+        <v>0.5984993614303962</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8163682266464388</v>
+        <v>0.984784822461999</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7566641047986067</v>
+        <v>0.9700257090818926</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5970818344514167</v>
+        <v>0.9700257090818927</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.4456806779</v>
+        <v>64.72384696152427</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.023990747465369503</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.006319470433757698</v>
-      </c>
+        <v>0.006984705646263512</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.5922817643718309</v>
+        <v>0.9700257090818927</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8275883364039648</v>
+        <v>0.6074156884665549</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.827008910713773</v>
+        <v>0.9851764028151588</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7720023560960794</v>
+        <v>0.9707858642113519</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6144278311254442</v>
+        <v>0.9707858642113518</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.780644564561497</v>
+        <v>66.46000903361126</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.021788048997911303</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.0066779777231873875</v>
-      </c>
+        <v>0.006916070440507621</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6595836777354077</v>
+        <v>0.9707858642113518</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.7905376923257066</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.7928109560981187</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7395871215716068</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.560536792060453</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>3.8265100372468113</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.026520163548950943</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.013962269472237325</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5922817643718309</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>185.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9801012358665763</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9889651615402069</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9788320953196489</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9751882382274939</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.11891891891891893</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.3245714882715746</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>185.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8313953184478088</v>
+        <v>0.9947580321780211</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8324411037717027</v>
+        <v>0.9924577581214046</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7588095458855925</v>
+        <v>0.9880350840431659</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6938410753927655</v>
+        <v>0.9831131466191132</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.9135135135135135</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>0.8803908970507764</v>
+        <v>1.367750088840397</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>185.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8427123996390119</v>
+        <v>0.9948785632090658</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8267268236099317</v>
+        <v>0.9922021256466047</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7672888443483006</v>
+        <v>0.9874986743160834</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.69041717737964</v>
+        <v>0.9828805021202668</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.47027027027027</v>
+        <v>0.4972972972972973</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>0.9782595639108665</v>
+        <v>1.3992401832715446</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>185.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.7934227138391418</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8110994168056528</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.739426723669543</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.6525734053432235</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.9891891891891893</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>0.8007414308083015</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>185.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8606950509265612</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.859651091661841</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.8130346607907735</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7368923423996011</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>4.475675675675675</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>0.9093133474261145</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.8810810810810811</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.11891891891891893</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.8810810810810811</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.005405405405405406</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.016216216216216217</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.043243243243243246</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.010810810810810811</v>
+        <v>0.8810810810810811</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.021621621621621623</v>
+        <v>0.0</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.0</v>
+        <v>0.005405405405405406</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.1945945945945946</v>
+        <v>0.032432432432432434</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.5567567567567567</v>
+        <v>0.016216216216216217</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.21621621621621623</v>
+        <v>0.06486486486486487</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.010810810810810811</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.032432432432432434</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.14594594594594595</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.08648648648648649</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.7243243243243244</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.016216216216216217</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.005405405405405406</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.21081081081081082</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.5081081081081081</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.2594594594594595</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.20540540540540542</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.032432432432432434</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.7351351351351352</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7362059905412506</v>
+        <v>0.6091243973505297</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.7621502560148004</v>
+        <v>0.7477891874485705</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.6157049833537092</v>
+        <v>0.6825028570842921</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.6157049833537092</v>
+        <v>0.49706091362349536</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>3.2043349857976975</v>
+        <v>2.9649370694449737</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.03557842242237525</v>
+        <v>0.026670918846447313</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>3.235135135135135</v>
+        <v>2.4792792792792793</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.2511334461669181</v>
+        <v>0.8637685431272061</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.6157049833537092</v>
+        <v>0.49590616675731247</v>
       </c>
     </row>
     <row r="7">
@@ -5950,24 +5947,26 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.615704983353709</v>
+        <v>0.7362059905412506</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.615704983353709</v>
+        <v>0.7621502560148004</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.37909262652659126</v>
+        <v>0.6157049833537092</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.615704983353709</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.615704983353709</v>
-      </c>
+        <v>0.6157049833537092</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>3.2043349857976975</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.03557842242237525</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
-        <v>0.615704983353709</v>
+        <v>0.6157049833537092</v>
       </c>
     </row>
     <row r="12">
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.37909262652659126</v>
+        <v>0.15214140876226345</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.615704983353709</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.37909262652659126</v>
-      </c>
+        <v>0.5502745827790023</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.3795715907594641</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.37957159075946434</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.223579014455823</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.02510426674545276</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.615704983353709</v>
+        <v>0.37957159075946434</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.2590669704553097</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.6630177450665802</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.49590616675731247</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.4959061667573126</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>1.9675153078834313</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.028709393610188334</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.49590616675731247</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>185.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8604102949098678</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.898806147996805</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7052650600590888</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.615704983353709</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>3.1243243243243244</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.1565986032434403</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>185.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9313133816824948</v>
+        <v>0.5269314610360197</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.898806147996805</v>
+        <v>0.7667882459333636</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7052650600590887</v>
+        <v>0.5593662800223296</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.615704983353709</v>
+        <v>0.47469521570360657</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.9675675675675676</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.17762633907651487</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>185.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.8648390086805485</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8633312783356104</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.7774897836676254</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.6402985552314369</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>3.1243243243243244</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.1565986032434403</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>185.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9253314338022849</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8157679387474609</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.6837828286930113</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.6215451644078426</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>3.345945945945946</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.6182711176146467</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.032432432432432434</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.9675675675675676</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.032432432432432434</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.11351351351351352</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.010810810810810811</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.4486486486486487</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.32972972972972975</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.06486486486486487</v>
       </c>
-      <c r="H23" t="n" s="345">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+      <c r="H26" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.032432432432432434</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.14594594594594595</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.1783783783783784</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.10810810810810811</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.15675675675675677</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.3783783783783784</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8838479892112452</v>
+        <v>0.6460116694176807</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8838934061887687</v>
+        <v>0.7752607996456267</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.7919435393446506</v>
+        <v>0.7111096179071473</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.7919435393446506</v>
+        <v>0.534855020444975</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>7.6127752711945265</v>
+        <v>3.4496020205784266</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.01707511448100309</v>
+        <v>0.022207540966191337</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.4891891891891893</v>
+        <v>3.1243243243243244</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.1288662511236527</v>
+        <v>0.5832116150779877</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.7919435393446507</v>
+        <v>0.47901165924095374</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.7919435393446507</v>
+        <v>0.79222402032079</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.7919435393446507</v>
+        <v>0.7948784825787703</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6271745695097323</v>
+        <v>0.6595836777354077</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.7919435393446507</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.7919435393446507</v>
-      </c>
+        <v>0.6595836777354078</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>3.8751589427180253</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.030254827178293794</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.7919435393446507</v>
+        <v>0.6595836777354077</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6271745695097323</v>
+        <v>0.1825103448275862</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.7919435393446507</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6271745695097323</v>
-      </c>
+        <v>0.6477456161323139</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.4790116592409537</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.4790116592409537</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>1.8388575012756128</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.022232918237312015</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.7919435393446507</v>
+        <v>0.47901165924095374</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.19537205693854154</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.6357153447523607</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.46596972435856365</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.4659697243585639</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>1.7451060196872803</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.024465938525632405</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.4659697243585639</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>185.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9473010170436434</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9465578533150129</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8423532836210657</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7919435393446507</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.627027027027027</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.2006901658069704</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>185.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9458096299735117</v>
+        <v>0.561560240032058</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9465578533150129</v>
+        <v>0.7805488139984658</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8423532836210657</v>
+        <v>0.5778726672403618</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.7919435393446507</v>
+        <v>0.5189203586352883</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.3513513513513513</v>
+        <v>0.9891891891891892</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.1845063229642068</v>
+        <v>0.10369212315422188</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>185.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.8995890384366448</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8530149445566473</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.7565928269430272</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.672087323743504</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.9135135135135135</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>0.8803908970507764</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>185.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9194037087090632</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8582488593336901</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.7668131996284329</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.6754624304129286</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>4.47027027027027</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>0.9782595639108665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.0972972972972973</v>
-      </c>
-      <c r="C23" t="n" s="455">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.010810810810810811</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9891891891891892</v>
+      </c>
+      <c r="D25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.010810810810810811</v>
+      </c>
+      <c r="C26" t="n" s="455">
         <v>0.021621621621621623</v>
       </c>
-      <c r="D23" t="n" s="456">
-        <v>0.32432432432432434</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.2864864864864865</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.12432432432432433</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.021621621621621623</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.42162162162162165</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="D26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.1945945945945946</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.5567567567567567</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.010810810810810811</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.032432432432432434</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.14594594594594595</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.08648648648648649</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.7243243243243244</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9899793076189813</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9901088135366092</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9804113817489</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9804113817489002</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>100.10010600863639</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0014637280038704479</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.4918918918918919</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.37670415706324</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9804113817489001</v>
+      <c r="A6" t="n" s="491">
+        <v>0.6414669837205049</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.6506170288920685</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.48215891472075545</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.4821589147207552</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.8621887232479903</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.05131076123352376</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>2.3783783783783785</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.2673009523699534</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.4821589147207552</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9804113817489001</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9804113817489001</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9612064774627873</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9804113817489001</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9804113817489001</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9804113817489001</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.4821589147207553</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.4821589147207553</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.23247721904469698</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.4821589147207553</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.4821589147207553</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.4821589147207553</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9612064774627873</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9804113817489001</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9612064774627873</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9804113817489001</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.23247721904469698</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.4821589147207553</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.23247721904469698</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.4821589147207553</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>185.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9949781426404133</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9950907952917916</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9852963663821377</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9804113817488999</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.4864864864864865</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.367750088840397</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8899963841899009</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8608597199081727</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.5977608776782954</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.4821589147207553</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.962162162162162</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.619740879597344</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>185.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.995202173139391</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9950907952917916</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9852963663821377</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9804113817489</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.4972972972972973</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.3992401832715446</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8285854915406647</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8608597199081727</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.5977608776782953</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.4821589147207553</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.7945945945945945</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.3191618604633237</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.8810810810810811</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.005405405405405406</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.0</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.016216216216216217</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G23" t="n" s="573">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.35135135135135137</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.06486486486486487</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.05945945945945946</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.31891891891891894</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.20540540540540542</v>
+      </c>
+      <c r="G23" t="n" s="574">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="C24" t="n" s="570">
         <v>0.043243243243243246</v>
       </c>
-      <c r="H23" t="n" s="574">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.8810810810810811</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.0</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.005405405405405406</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.032432432432432434</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.016216216216216217</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.06486486486486487</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="D24" t="n" s="571">
+        <v>0.04864864864864865</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.43783783783783786</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.33513513513513515</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.6414669837205049</v>
+        <v>0.8838479892112452</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.6506170288920685</v>
+        <v>0.8838934061887687</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.48215891472075545</v>
+        <v>0.7919435393446506</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.4821589147207552</v>
+        <v>0.7919435393446506</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.8621887232479903</v>
+        <v>7.6127752711945265</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.05131076123352376</v>
+        <v>0.01707511448100309</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>2.3783783783783785</v>
+        <v>2.4891891891891893</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.2673009523699534</v>
+        <v>1.1288662511236527</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.4821589147207552</v>
+        <v>0.7919435393446507</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.4821589147207553</v>
+        <v>0.7919435393446507</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.4821589147207553</v>
+        <v>0.7919435393446507</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.23247721904469698</v>
+        <v>0.6271745695097323</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.4821589147207553</v>
+        <v>0.7919435393446507</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.4821589147207553</v>
+        <v>0.7919435393446507</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.4821589147207553</v>
+        <v>0.7919435393446507</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.23247721904469698</v>
+        <v>0.6271745695097323</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.4821589147207553</v>
+        <v>0.7919435393446507</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.23247721904469698</v>
+        <v>0.6271745695097323</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.4821589147207553</v>
+        <v>0.7919435393446507</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>185.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8899963841899009</v>
+        <v>0.9473010170436434</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8608597199081727</v>
+        <v>0.9465578533150129</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.5977608776782954</v>
+        <v>0.8423532836210657</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.4821589147207553</v>
+        <v>0.7919435393446507</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.962162162162162</v>
+        <v>2.627027027027027</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.619740879597344</v>
+        <v>1.2006901658069704</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>185.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8285854915406647</v>
+        <v>0.9458096299735117</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8608597199081727</v>
+        <v>0.9465578533150129</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.5977608776782953</v>
+        <v>0.8423532836210657</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.4821589147207553</v>
+        <v>0.7919435393446507</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.7945945945945945</v>
+        <v>2.3513513513513513</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.3191618604633237</v>
+        <v>1.1845063229642068</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.35135135135135137</v>
+        <v>0.0972972972972973</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.06486486486486487</v>
+        <v>0.021621621621621623</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.05945945945945946</v>
+        <v>0.32432432432432434</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.31891891891891894</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.20540540540540542</v>
+        <v>0.2864864864864865</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.13513513513513514</v>
+        <v>0.12432432432432433</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.043243243243243246</v>
+        <v>0.021621621621621623</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.04864864864864865</v>
+        <v>0.42162162162162165</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.43783783783783786</v>
+        <v>0.24324324324324326</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.33513513513513515</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.7738092255267971</v>
+        <v>0.7439473912870963</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.7991839009998423</v>
+        <v>0.7775248603802704</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.8952473772536332</v>
+        <v>0.8852852742361903</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.28467606654298977</v>
+        <v>0.2589784529910671</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>3.9796804388636926</v>
+        <v>3.49488424508586</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.02562769099249646</v>
+        <v>0.02726368243731021</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.7567567567567566</v>
+        <v>2.021081081081081</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.684828025278475</v>
+        <v>0.6244466410515506</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.22310248303998745</v>
+        <v>0.16524465997455481</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7415782482518367</v>
+        <v>0.7316515512704488</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7605800927399154</v>
+        <v>0.7466750337923429</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8727021853721568</v>
+        <v>0.8581158021961536</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.2608872613664234</v>
+        <v>0.24670425576094024</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.176762122431569</v>
+        <v>2.9474987995469597</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.029295834428689767</v>
+        <v>0.029253890129439845</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.04510773229983925</v>
+        <v>0.04911874123420644</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.1956261660943159</v>
+        <v>0.20389372617068108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7463626441205944</v>
+        <v>0.7087084523417099</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7686803572790224</v>
+        <v>0.7442743878289759</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8688066343376744</v>
+        <v>0.8559214918250508</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.2696596907376192</v>
+        <v>0.24436049350110572</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.323022412784114</v>
+        <v>2.910441318373776</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.02873394898730249</v>
+        <v>0.030160876861099434</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.04407611055511846</v>
+        <v>0.04919335714330576</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.21998626924747844</v>
+        <v>0.2035059940880349</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.754547068374475</v>
+        <v>0.7116148499534717</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7742150444689586</v>
+        <v>0.7452853933713737</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8744157611881594</v>
+        <v>0.8562631897140514</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.27588663377000466</v>
+        <v>0.24534393079731048</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.4289930551308037</v>
+        <v>2.925962524237955</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.02797102967837679</v>
+        <v>0.02977626798994014</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.0448666781767639</v>
+        <v>0.04893673455163648</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.22022288501414627</v>
+        <v>0.2035059940880349</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7567129772393801</v>
+        <v>0.7515339235719739</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7776570059029462</v>
+        <v>0.7899473364614643</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8705432397654806</v>
+        <v>0.8922236652569618</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.27985918066539983</v>
+        <v>0.2947101390415486</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.4975556979478983</v>
+        <v>3.7607108767584982</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.027628509426346162</v>
+        <v>0.02769263109424183</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.04077058030348683</v>
+        <v>0.0667521063863037</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.23461885590723264</v>
+        <v>0.22676971146254582</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7493197573590408</v>
+        <v>0.7127406837819579</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7806018036103493</v>
+        <v>0.7401821389490159</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8695117936510643</v>
+        <v>0.8644959179909716</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.28332095369308347</v>
+        <v>0.24043262211357888</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.5579226103755315</v>
+        <v>2.848850098122275</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.028481073495727136</v>
+        <v>0.03050338629947626</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.0447969165477495</v>
+        <v>0.07593724999622034</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.21998626924747844</v>
+        <v>0.1355156566556594</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7536123684230411</v>
+        <v>0.7208537636273231</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7851310792242027</v>
+        <v>0.7500124760048221</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8716263412152558</v>
+        <v>0.8667603104487916</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.2887624578293426</v>
+        <v>0.2500124764199043</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.65400019876974</v>
+        <v>3.0001996260392936</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.028053495251023356</v>
+        <v>0.02962819590008567</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.04413042069659068</v>
+        <v>0.07529938428348126</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.2206548108547754</v>
+        <v>0.1355156566556594</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7554943275802877</v>
+        <v>0.7411990401350139</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.7892092766134859</v>
+        <v>0.775324776750397</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8476982117427213</v>
+        <v>0.8883730400740154</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.2937876263577798</v>
+        <v>0.27715889102219854</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>3.744041786726836</v>
+        <v>3.450869061289638</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.02742656536571959</v>
+        <v>0.027672927747009367</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.036445551819400485</v>
+        <v>0.07667983040798852</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.24447473132199954</v>
+        <v>0.19581331967722726</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7579019107604008</v>
+        <v>0.7191867861666077</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.7900432794080432</v>
+        <v>0.7660084152425172</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8481288266171058</v>
+        <v>0.8803275564443486</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.29483035823696446</v>
+        <v>0.26672227420038097</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>3.76288635667664</v>
+        <v>3.2736579652487734</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.027127898604769756</v>
+        <v>0.029953525718719145</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.036021854433938016</v>
+        <v>0.0773773022939225</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.24241289712958747</v>
+        <v>0.16349000769417832</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7787086955912376</v>
+        <v>0.712381223189301</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8003332000613675</v>
+        <v>0.7600134606097935</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.8989153196104532</v>
+        <v>0.8588481165651571</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.30813637251046466</v>
+        <v>0.26028818140785737</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>4.008343902478278</v>
+        <v>3.1669003709164203</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.025573568531415895</v>
+        <v>0.030317256010080743</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.0480914657508275</v>
+        <v>0.07037263891353215</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.23495148476754682</v>
+        <v>0.16349000769417832</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7551533026887671</v>
+        <v>0.7157931643562293</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.7874704029175905</v>
+        <v>0.7635437796570201</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.8915087451202229</v>
+        <v>0.8605100821582716</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.29163013026281587</v>
+        <v>0.2640512656458457</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>3.7052270070988977</v>
+        <v>3.2291126811952733</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.02810775008030393</v>
+        <v>0.03000233637245744</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.05101888576794597</v>
+        <v>0.06994507975996696</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.22243394143269046</v>
+        <v>0.16349000769417832</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>185.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6779376799752571</v>
+        <v>0.6284402204248201</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7403224757507134</v>
+        <v>0.653694710258098</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.7095620033534177</v>
+        <v>0.6859900599296999</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5986334201196084</v>
+        <v>0.5954087637995225</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.9135135135135135</v>
+        <v>0.11891891891891893</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>0.8803908970507764</v>
+        <v>0.3245714882715746</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>185.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6267775138817323</v>
+        <v>0.6497066765225564</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6874085155621303</v>
+        <v>0.6683145086394968</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6619124566386269</v>
+        <v>0.7044810848670523</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5275908644223771</v>
+        <v>0.49292700420600155</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>4.47027027027027</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>0.9782595639108665</v>
+        <v>1.367750088840397</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>185.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.5700044577576503</v>
+        <v>0.6416647524667521</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.649848541948196</v>
+        <v>0.6621800745982745</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.613807680616203</v>
+        <v>0.6977976123071195</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.482880451320048</v>
+        <v>0.47817452253481363</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.9891891891891893</v>
+        <v>0.4972972972972973</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>0.8007414308083015</v>
+        <v>1.3992401832715446</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>185.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.5428942115486087</v>
+        <v>0.17140808437108354</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6258867430694933</v>
+        <v>0.35424610716769106</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.5999133452612792</v>
+        <v>0.2533486520230608</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.43881714264405675</v>
+        <v>0.1552236268672882</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>4.475675675675675</v>
+        <v>0.9891891891891892</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>0.9093133474261145</v>
+        <v>0.10369212315422188</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>185.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6095046133285562</v>
+        <v>0.6113104212742067</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6050058545017019</v>
+        <v>0.6928155805860018</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.5764037673991258</v>
+        <v>0.6517347739780522</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.4803440286959548</v>
+        <v>0.5108878273063555</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.627027027027027</v>
+        <v>3.9135135135135135</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.2006901658069704</v>
+        <v>0.8803908970507764</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>185.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5809470037359412</v>
+        <v>0.552186925754033</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.5721835288894321</v>
+        <v>0.6330588634130139</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5406241063781398</v>
+        <v>0.5855628835714306</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.4481028129952492</v>
+        <v>0.4286231024220664</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>2.3513513513513513</v>
+        <v>4.47027027027027</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.1845063229642068</v>
+        <v>0.9782595639108665</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>185.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.5935196631638384</v>
+        <v>0.5703630023548605</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.5418724763630102</v>
+        <v>0.4637263696423249</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.5659904218758308</v>
+        <v>0.3572993927656947</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.43950796805601444</v>
+        <v>0.3540689279705497</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.4864864864864865</v>
+        <v>1.962162162162162</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.367750088840397</v>
+        <v>1.619740879597344</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>185.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.5857574135065673</v>
+        <v>0.5970937478616827</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5355828762068996</v>
+        <v>0.5288273554947305</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.5593382017977209</v>
+        <v>0.44125856744914277</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.42582637350772357</v>
+        <v>0.4334600055709838</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.4972972972972973</v>
+        <v>2.7945945945945945</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.3992401832715446</v>
+        <v>1.3191618604633237</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>185.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5315866049890001</v>
+        <v>0.6158043626555482</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.45532302118332674</v>
+        <v>0.5689616050327142</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.3509942860867453</v>
+        <v>0.5391921032745652</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.3289767394757129</v>
+        <v>0.473467339123389</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.962162162162162</v>
+        <v>2.627027027027027</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.619740879597344</v>
+        <v>1.2006901658069704</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>185.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5880975233443573</v>
+        <v>0.5968489965265502</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5548861647776234</v>
+        <v>0.5454884338009639</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.46852987202137947</v>
+        <v>0.5135407326292022</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.43926601092666206</v>
+        <v>0.4525256024382935</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.7945945945945945</v>
+        <v>2.3513513513513513</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.3191618604633237</v>
+        <v>1.1845063229642068</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.010810810810810811</v>
+        <v>0.8810810810810811</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.021621621621621623</v>
+        <v>0.11891891891891893</v>
       </c>
       <c r="D39" t="n" s="799">
         <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.1945945945945946</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.5567567567567567</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.21621621621621623</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.010810810810810811</v>
+        <v>0.8810810810810811</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.0</v>
+        <v>0.005405405405405406</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.032432432432432434</v>
+        <v>0.0</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.14594594594594595</v>
+        <v>0.016216216216216217</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.08648648648648649</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.7243243243243244</v>
+        <v>0.043243243243243246</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.0</v>
+        <v>0.8810810810810811</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.016216216216216217</v>
+        <v>0.0</v>
       </c>
       <c r="D41" t="n" s="799">
         <v>0.005405405405405406</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.21081081081081082</v>
+        <v>0.032432432432432434</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.5081081081081081</v>
+        <v>0.016216216216216217</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.2594594594594595</v>
+        <v>0.06486486486486487</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.0</v>
+        <v>0.010810810810810811</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.0</v>
+        <v>0.9891891891891892</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.02702702702702703</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.20540540540540542</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.032432432432432434</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.7351351351351352</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.0972972972972973</v>
+        <v>0.010810810810810811</v>
       </c>
       <c r="C43" t="n" s="798">
         <v>0.021621621621621623</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.32432432432432434</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.2702702702702703</v>
+        <v>0.1945945945945946</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.2864864864864865</v>
+        <v>0.5567567567567567</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.21621621621621623</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.12432432432432433</v>
+        <v>0.010810810810810811</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.021621621621621623</v>
+        <v>0.0</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.42162162162162165</v>
+        <v>0.032432432432432434</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.24324324324324326</v>
+        <v>0.14594594594594595</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.1891891891891892</v>
+        <v>0.08648648648648649</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.7243243243243244</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.8810810810810811</v>
+        <v>0.35135135135135137</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.005405405405405406</v>
+        <v>0.06486486486486487</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.0</v>
+        <v>0.05945945945945946</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.016216216216216217</v>
+        <v>0.31891891891891894</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.05405405405405406</v>
+        <v>0.20540540540540542</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.043243243243243246</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.8810810810810811</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.0</v>
+        <v>0.043243243243243246</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.005405405405405406</v>
+        <v>0.04864864864864865</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.032432432432432434</v>
+        <v>0.43783783783783786</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.016216216216216217</v>
+        <v>0.33513513513513515</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.06486486486486487</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.35135135135135137</v>
+        <v>0.0972972972972973</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.06486486486486487</v>
+        <v>0.021621621621621623</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.05945945945945946</v>
+        <v>0.32432432432432434</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.31891891891891894</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.20540540540540542</v>
+        <v>0.2864864864864865</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.13513513513513514</v>
+        <v>0.12432432432432433</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.043243243243243246</v>
+        <v>0.021621621621621623</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.04864864864864865</v>
+        <v>0.42162162162162165</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.43783783783783786</v>
+        <v>0.24324324324324326</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.33513513513513515</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
